--- a/Ressources/SFCC/TestData/FROM_SFCC/4_deleteSomeAccountInfo.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/4_deleteSomeAccountInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Ressources/SFCC/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{352D267D-1DB9-47EA-8F02-126CC1DCCF23}"/>
+  <xr:revisionPtr revIDLastSave="608" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116267EA-B3D5-48DE-8D7C-AA577D5B8FFF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -77,30 +77,6 @@
     <t>BEL</t>
   </si>
   <si>
-    <t>UC1_SFCC_Create_Account_FRA_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Create_Account_USA_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Create_Account_ITA_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Create_Account_GBR_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Create_Account_CHE_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Create_Account_BEL_UAT</t>
-  </si>
-  <si>
-    <t>UC7_SFCC_Create_Account_LUX_UAT</t>
-  </si>
-  <si>
-    <t>UC8_SFCC_Create_Account_NLD_UAT</t>
-  </si>
-  <si>
     <t>LUX</t>
   </si>
   <si>
@@ -122,9 +98,6 @@
     <t xml:space="preserve">Incident car redirection sur URL FRA </t>
   </si>
   <si>
-    <t>UC9_SFCC_Create_Account_POL_UAT</t>
-  </si>
-  <si>
     <t>${firstName}</t>
   </si>
   <si>
@@ -134,35 +107,92 @@
     <t>${email}</t>
   </si>
   <si>
-    <t>${password}</t>
-  </si>
-  <si>
     <t>${birthDate}</t>
   </si>
   <si>
     <t>${emailOptin}</t>
   </si>
   <si>
+    <t>${SMSOptin}</t>
+  </si>
+  <si>
+    <t>${phoneNumber}</t>
+  </si>
+  <si>
+    <t>[Description]</t>
+  </si>
+  <si>
+    <t>@{allCheckSystems}</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>sandrawegrzyniak@example.org</t>
+  </si>
+  <si>
     <t>POL</t>
   </si>
   <si>
-    <t>${SMSOptin}</t>
-  </si>
-  <si>
-    <t>${phoneNumber}</t>
-  </si>
-  <si>
-    <t>[Description]</t>
-  </si>
-  <si>
-    <t>@{allCheckSystems}</t>
+    <t>UC1_SFCC_Delete_Some_Account_Info_FRA_UAT</t>
+  </si>
+  <si>
+    <t>UC2_SFCC_Delete_Some_Account_Info_USA_UAT</t>
+  </si>
+  <si>
+    <t>UC3_SFCC_Delete_Some_Account_Info_ITA_UAT</t>
+  </si>
+  <si>
+    <t>UC4_SFCC_Delete_Some_Account_Info_GBR_UAT</t>
+  </si>
+  <si>
+    <t>UC5_SFCC_Delete_Some_Account_Info_CHE_UAT</t>
+  </si>
+  <si>
+    <t>UC6_SFCC_Delete_Some_Account_Info_BEL_UAT</t>
+  </si>
+  <si>
+    <t>UC7_SFCC_Delete_Some_Account_Info_LUX_UAT</t>
+  </si>
+  <si>
+    <t>UC8_SFCC_Delete_Some_Account_Info_NLD_UAT</t>
+  </si>
+  <si>
+    <t>UC9_SFCC_Delete_Some_Account_Info_POL_UAT</t>
+  </si>
+  <si>
+    <t>constanca60@example.com</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>UC10_SFCC_Delete_Some_Account_Info_AUT_UAT</t>
+  </si>
+  <si>
+    <t>UC11_SFCC_Delete_Some_Account_Info_PRT_UAT</t>
+  </si>
+  <si>
+    <t>x3qbdjgro52283hy@qq.com</t>
+  </si>
+  <si>
+    <t>UC12_SFCC_Delete_Some_Account_Info_NZL_UAT</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>vpgz0twec0yb10h3@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +240,21 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -281,10 +326,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,15 +359,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -712,33 +788,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="80.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="57.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="19.05" customHeight="1">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -746,89 +820,83 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="21">
+      <c r="A3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -843,360 +911,415 @@
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>3</v>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21">
+    <row r="4" spans="1:14" ht="21">
       <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
+    <row r="6" spans="1:14" ht="21">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
+    <row r="7" spans="1:14" ht="21">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>25</v>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
+    <row r="8" spans="1:14" ht="21">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
+    <row r="9" spans="1:14" ht="21">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
+    <row r="10" spans="1:14" ht="21">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="21">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="7"/>
+      <c r="C11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7"/>
+    <row r="12" spans="1:14" ht="21">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="17.399999999999999">
-      <c r="O13" s="12"/>
+    <row r="13" spans="1:14" ht="21">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:K10 D11:K13">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="C12" r:id="rId2" display="mailto:constanca60@example.com" xr:uid="{112A5A8D-7A58-40E8-AE7A-FF3EED1DB7B7}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{61A3E414-6E67-43AE-8543-259E65334F80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Ressources/SFCC/TestData/FROM_SFCC/4_deleteSomeAccountInfo.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/4_deleteSomeAccountInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="608" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116267EA-B3D5-48DE-8D7C-AA577D5B8FFF}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7770346D-5626-4132-B2E8-64CE5475ACA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -128,71 +128,71 @@
     <t>DEL</t>
   </si>
   <si>
-    <t>sandrawegrzyniak@example.org</t>
-  </si>
-  <si>
     <t>POL</t>
   </si>
   <si>
-    <t>UC1_SFCC_Delete_Some_Account_Info_FRA_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Delete_Some_Account_Info_USA_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Delete_Some_Account_Info_ITA_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Delete_Some_Account_Info_GBR_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Delete_Some_Account_Info_CHE_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Delete_Some_Account_Info_BEL_UAT</t>
-  </si>
-  <si>
-    <t>UC7_SFCC_Delete_Some_Account_Info_LUX_UAT</t>
-  </si>
-  <si>
-    <t>UC8_SFCC_Delete_Some_Account_Info_NLD_UAT</t>
-  </si>
-  <si>
-    <t>UC9_SFCC_Delete_Some_Account_Info_POL_UAT</t>
-  </si>
-  <si>
-    <t>constanca60@example.com</t>
-  </si>
-  <si>
     <t>AUT</t>
   </si>
   <si>
     <t>PRT</t>
   </si>
   <si>
-    <t>UC10_SFCC_Delete_Some_Account_Info_AUT_UAT</t>
-  </si>
-  <si>
-    <t>UC11_SFCC_Delete_Some_Account_Info_PRT_UAT</t>
-  </si>
-  <si>
     <t>x3qbdjgro52283hy@qq.com</t>
   </si>
   <si>
-    <t>UC12_SFCC_Delete_Some_Account_Info_NZL_UAT</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>vpgz0twec0yb10h3@yopmail.com</t>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_FRA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_USA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_ITA</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_GBR</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_CHE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_BEL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_LUX</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_NLD</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_POL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_AUT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_PRT</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_NZL</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_ARE</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>qbs7s3a8ti@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,43 +206,6 @@
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Corps)"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -251,17 +214,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -302,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -325,59 +306,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -469,6 +481,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,17 +804,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="57.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" bestFit="1" customWidth="1"/>
@@ -806,517 +822,545 @@
     <col min="9" max="9" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.25" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="M12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="C14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B11:B13">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="B11:B14">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K10 D11:K13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:K10 D11:K13 G14">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="28" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C13">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
-    <hyperlink ref="C12" r:id="rId2" display="mailto:constanca60@example.com" xr:uid="{112A5A8D-7A58-40E8-AE7A-FF3EED1DB7B7}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{61A3E414-6E67-43AE-8543-259E65334F80}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{61A3E414-6E67-43AE-8543-259E65334F80}"/>
+    <hyperlink ref="C14" r:id="rId3" display="mailto:qbs7s3a8ti@qq.com" xr:uid="{D3B299BD-9F06-4A56-9F7C-446F0AE43026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Ressources/SFCC/TestData/FROM_SFCC/4_deleteSomeAccountInfo.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/4_deleteSomeAccountInfo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7770346D-5626-4132-B2E8-64CE5475ACA0}"/>
+  <xr:revisionPtr revIDLastSave="656" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3781BB48-EFBF-4B15-A5AD-6BFB92A3D487}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -186,6 +187,12 @@
   </si>
   <si>
     <t>qbs7s3a8ti@qq.com</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Delete_Some_Account_Info_MYS</t>
+  </si>
+  <si>
+    <t>MYS</t>
   </si>
 </sst>
 </file>
@@ -369,7 +376,127 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -481,10 +608,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -874,17 +997,121 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A644E3D-BEF4-4B82-8EC6-F38A3A719D8E}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="68.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
@@ -902,17 +1129,19 @@
       <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>7</v>
+      <c r="L2" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -920,7 +1149,9 @@
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
@@ -939,18 +1170,16 @@
         <v>3</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
@@ -967,7 +1196,9 @@
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>1</v>
       </c>
@@ -979,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -1005,9 +1236,7 @@
       <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1019,16 +1248,18 @@
         <v>3</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -1057,18 +1288,18 @@
         <v>3</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -1097,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>15</v>
@@ -1106,9 +1337,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -1137,18 +1368,16 @@
         <v>3</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>3</v>
@@ -1156,43 +1385,33 @@
       <c r="C9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="K9" s="8"/>
       <c r="L9" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>1</v>
+      <c r="C10" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1205,22 +1424,22 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
+      <c r="C11" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1233,16 +1452,16 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>3</v>
@@ -1261,63 +1480,44 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="10" t="s">
-        <v>34</v>
+      <c r="L13" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="N13" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B11:B14">
+  <conditionalFormatting sqref="B10:B13">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:K9 D10:K12 G13">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1325,45 +1525,28 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K10 D11:K13 G14">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="28" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{61A3E414-6E67-43AE-8543-259E65334F80}"/>
-    <hyperlink ref="C14" r:id="rId3" display="mailto:qbs7s3a8ti@qq.com" xr:uid="{D3B299BD-9F06-4A56-9F7C-446F0AE43026}"/>
+    <hyperlink ref="N2" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{61A3E414-6E67-43AE-8543-259E65334F80}"/>
+    <hyperlink ref="C13" r:id="rId3" display="mailto:qbs7s3a8ti@qq.com" xr:uid="{D3B299BD-9F06-4A56-9F7C-446F0AE43026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
